--- a/xlsx/政策_政策_行政_intext.xlsx
+++ b/xlsx/政策_政策_行政_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="262">
   <si>
     <t>行政</t>
   </si>
@@ -801,450 +801,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://als.wikipedia.org/wiki/Exekutive</t>
-  </si>
-  <si>
-    <t>Exekutive – Alemannisch</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/%D8%B3%D9%84%D8%B7%D8%A9_%D8%AA%D9%86%D9%81%D9%8A%D8%B0%D9%8A%D8%A9</t>
-  </si>
-  <si>
-    <t>سلطة تنفيذية – 阿拉伯语</t>
-  </si>
-  <si>
-    <t>https://ast.wikipedia.org/wiki/Poder_executivu</t>
-  </si>
-  <si>
-    <t>Poder executivu – 阿斯图里亚斯语</t>
-  </si>
-  <si>
-    <t>https://az.wikipedia.org/wiki/%C4%B0craedici_hakimiyy%C9%99t</t>
-  </si>
-  <si>
-    <t>İcraedici hakimiyyət – 阿塞拜疆语</t>
-  </si>
-  <si>
-    <t>https://be.wikipedia.org/wiki/%D0%92%D1%8B%D0%BA%D0%B0%D0%BD%D0%B0%D1%9E%D1%87%D0%B0%D1%8F_%D1%9E%D0%BB%D0%B0%D0%B4%D0%B0</t>
-  </si>
-  <si>
-    <t>Выканаўчая ўлада – 白俄罗斯语</t>
-  </si>
-  <si>
-    <t>https://be-x-old.wikipedia.org/wiki/%D0%92%D1%8B%D0%BA%D0%B0%D0%BD%D0%B0%D1%9E%D1%87%D0%B0%D1%8F_%D1%9E%D0%BB%D0%B0%D0%B4%D0%B0</t>
-  </si>
-  <si>
-    <t>Выканаўчая ўлада – Belarusian (Taraškievica orthography)</t>
-  </si>
-  <si>
-    <t>https://bg.wikipedia.org/wiki/%D0%98%D0%B7%D0%BF%D1%8A%D0%BB%D0%BD%D0%B8%D1%82%D0%B5%D0%BB%D0%BD%D0%B0_%D0%B2%D0%BB%D0%B0%D1%81%D1%82</t>
-  </si>
-  <si>
-    <t>Изпълнителна власт – 保加利亚语</t>
-  </si>
-  <si>
-    <t>https://bs.wikipedia.org/wiki/Izvr%C5%A1na_vlast</t>
-  </si>
-  <si>
-    <t>Izvršna vlast – 波斯尼亚语</t>
-  </si>
-  <si>
-    <t>https://ca.wikipedia.org/wiki/Poder_executiu</t>
-  </si>
-  <si>
-    <t>Poder executiu – 加泰罗尼亚语</t>
-  </si>
-  <si>
-    <t>https://cs.wikipedia.org/wiki/V%C3%BDkonn%C3%A1_moc</t>
-  </si>
-  <si>
-    <t>Výkonná moc – 捷克语</t>
-  </si>
-  <si>
-    <t>https://da.wikipedia.org/wiki/Ud%C3%B8vende_magt</t>
-  </si>
-  <si>
-    <t>Udøvende magt – 丹麦语</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Exekutive</t>
-  </si>
-  <si>
-    <t>Exekutive – 德语</t>
-  </si>
-  <si>
-    <t>https://el.wikipedia.org/wiki/%CE%95%CE%BA%CF%84%CE%B5%CE%BB%CE%B5%CF%83%CF%84%CE%B9%CE%BA%CE%AE_%CE%B5%CE%BE%CE%BF%CF%85%CF%83%CE%AF%CE%B1</t>
-  </si>
-  <si>
-    <t>Εκτελεστική εξουσία – 希腊语</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Executive_(government)</t>
-  </si>
-  <si>
-    <t>Executive (government) – 英语</t>
-  </si>
-  <si>
-    <t>https://eo.wikipedia.org/wiki/Plenuma_povo</t>
-  </si>
-  <si>
-    <t>Plenuma povo – 世界语</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Poder_ejecutivo</t>
-  </si>
-  <si>
-    <t>Poder ejecutivo – 西班牙语</t>
-  </si>
-  <si>
-    <t>https://et.wikipedia.org/wiki/T%C3%A4idesaatev_v%C3%B5im</t>
-  </si>
-  <si>
-    <t>Täidesaatev võim – 爱沙尼亚语</t>
-  </si>
-  <si>
-    <t>https://eu.wikipedia.org/wiki/Botere_betearazle</t>
-  </si>
-  <si>
-    <t>Botere betearazle – 巴斯克语</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D9%82%D9%88%D9%87_%D9%85%D8%AC%D8%B1%DB%8C%D9%87</t>
-  </si>
-  <si>
-    <t>قوه مجریه – 波斯语</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Pouvoir_ex%C3%A9cutif</t>
-  </si>
-  <si>
-    <t>Pouvoir exécutif – 法语</t>
-  </si>
-  <si>
-    <t>https://fy.wikipedia.org/wiki/Utfierende_macht</t>
-  </si>
-  <si>
-    <t>Utfierende macht – 西弗里西亚语</t>
-  </si>
-  <si>
-    <t>https://gl.wikipedia.org/wiki/Poder_executivo</t>
-  </si>
-  <si>
-    <t>Poder executivo – 加利西亚语</t>
-  </si>
-  <si>
-    <t>https://he.wikipedia.org/wiki/%D7%A8%D7%A9%D7%95%D7%AA_%D7%9E%D7%91%D7%A6%D7%A2%D7%AA</t>
-  </si>
-  <si>
-    <t>רשות מבצעת – 希伯来语</t>
-  </si>
-  <si>
-    <t>https://hi.wikipedia.org/wiki/%E0%A4%95%E0%A4%BE%E0%A4%B0%E0%A5%8D%E0%A4%AF%E0%A4%95%E0%A4%BE%E0%A4%B0%E0%A4%BF%E0%A4%A3%E0%A5%80_(%E0%A4%B8%E0%A4%B0%E0%A4%95%E0%A4%BE%E0%A4%B0)</t>
-  </si>
-  <si>
-    <t>कार्यकारिणी (सरकार) – 印地语</t>
-  </si>
-  <si>
-    <t>https://hr.wikipedia.org/wiki/Izvr%C5%A1na_vlast</t>
-  </si>
-  <si>
-    <t>Izvršna vlast – 克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://hy.wikipedia.org/wiki/%D4%B3%D5%B8%D6%80%D5%AE%D5%A1%D5%A4%D5%AB%D6%80_%D5%AB%D5%B7%D5%AD%D5%A1%D5%B6%D5%B8%D6%82%D5%A9%D5%B5%D5%B8%D6%82%D5%B6</t>
-  </si>
-  <si>
-    <t>Գործադիր իշխանություն – 亚美尼亚语</t>
-  </si>
-  <si>
-    <t>https://id.wikipedia.org/wiki/Eksekutif</t>
-  </si>
-  <si>
-    <t>Eksekutif – 印度尼西亚语</t>
-  </si>
-  <si>
-    <t>https://is.wikipedia.org/wiki/Framkv%C3%A6mdarvald</t>
-  </si>
-  <si>
-    <t>Framkvæmdarvald – 冰岛语</t>
-  </si>
-  <si>
-    <t>https://it.wikipedia.org/wiki/Potere_esecutivo</t>
-  </si>
-  <si>
-    <t>Potere esecutivo – 意大利语</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%96%A2</t>
-  </si>
-  <si>
-    <t>行政機関 – 日语</t>
-  </si>
-  <si>
-    <t>https://jv.wikipedia.org/wiki/Eksekutif</t>
-  </si>
-  <si>
-    <t>Eksekutif – 爪哇语</t>
-  </si>
-  <si>
-    <t>https://kk.wikipedia.org/wiki/%D0%90%D1%82%D2%9B%D0%B0%D1%80%D1%83%D1%88%D1%8B_%D0%B1%D0%B8%D0%BB%D1%96%D0%BA</t>
-  </si>
-  <si>
-    <t>Атқарушы билік – 哈萨克语</t>
-  </si>
-  <si>
-    <t>https://kn.wikipedia.org/wiki/%E0%B2%95%E0%B2%BE%E0%B2%B0%E0%B3%8D%E0%B2%AF%E0%B2%BE%E0%B2%82%E0%B2%97</t>
-  </si>
-  <si>
-    <t>ಕಾರ್ಯಾಂಗ – 卡纳达语</t>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%ED%96%89%EC%A0%95%EA%B8%B0%EA%B4%80</t>
-  </si>
-  <si>
-    <t>행정기관 – 韩语</t>
-  </si>
-  <si>
-    <t>https://krc.wikipedia.org/wiki/%D0%A2%D0%BE%D0%BB%D1%82%D1%83%D1%80%D1%83%D1%83%D1%87%D1%83_%D0%B2%D0%BB%D0%B0%D1%81%D1%82%D1%8C</t>
-  </si>
-  <si>
-    <t>Толтуруучу власть – 卡拉恰伊巴尔卡尔语</t>
-  </si>
-  <si>
-    <t>https://la.wikipedia.org/wiki/Potestas_exsecutiva</t>
-  </si>
-  <si>
-    <t>Potestas exsecutiva – 拉丁语</t>
-  </si>
-  <si>
-    <t>https://lmo.wikipedia.org/wiki/Poder_esecutiv</t>
-  </si>
-  <si>
-    <t>Poder esecutiv – Lombard</t>
-  </si>
-  <si>
-    <t>https://lt.wikipedia.org/wiki/Vykdomoji_vald%C5%BEia</t>
-  </si>
-  <si>
-    <t>Vykdomoji valdžia – 立陶宛语</t>
-  </si>
-  <si>
-    <t>https://lv.wikipedia.org/wiki/Izpildvara</t>
-  </si>
-  <si>
-    <t>Izpildvara – 拉脱维亚语</t>
-  </si>
-  <si>
-    <t>https://mai.wikipedia.org/wiki/%E0%A4%95%E0%A4%BE%E0%A4%B0%E0%A5%8D%E0%A4%AF%E0%A4%95%E0%A4%BE%E0%A4%B0%E0%A4%BF%E0%A4%A3%E0%A5%80</t>
-  </si>
-  <si>
-    <t>कार्यकारिणी – 迈蒂利语</t>
-  </si>
-  <si>
-    <t>https://mk.wikipedia.org/wiki/%D0%98%D0%B7%D0%B2%D1%80%D1%88%D0%BD%D0%B0_%D0%B2%D0%BB%D0%B0%D1%81%D1%82</t>
-  </si>
-  <si>
-    <t>Извршна власт – 马其顿语</t>
-  </si>
-  <si>
-    <t>https://ml.wikipedia.org/wiki/%E0%B4%95%E0%B4%BE%E0%B4%B0%E0%B5%8D%E0%B4%AF%E0%B4%A8%E0%B4%BF%E0%B5%BC%E0%B4%B5%E0%B5%8D%E0%B4%B5%E0%B4%B9%E0%B4%A3_%E0%B4%B5%E0%B4%BF%E0%B4%AD%E0%B4%BE%E0%B4%97%E0%B4%82</t>
-  </si>
-  <si>
-    <t>കാര്യനിർവ്വഹണ വിഭാഗം – 马拉雅拉姆语</t>
-  </si>
-  <si>
-    <t>https://ms.wikipedia.org/wiki/Badan_eksekutif</t>
-  </si>
-  <si>
-    <t>Badan eksekutif – 马来语</t>
-  </si>
-  <si>
-    <t>https://nds.wikipedia.org/wiki/Ut%C3%B6vend_Macht</t>
-  </si>
-  <si>
-    <t>Utövend Macht – 低地德语</t>
-  </si>
-  <si>
-    <t>https://ne.wikipedia.org/wiki/%E0%A4%95%E0%A4%BE%E0%A4%B0%E0%A5%8D%E0%A4%AF%E0%A4%95%E0%A4%BE%E0%A4%B0%E0%A4%BF%E0%A4%A3%E0%A5%80</t>
-  </si>
-  <si>
-    <t>कार्यकारिणी – 尼泊尔语</t>
-  </si>
-  <si>
-    <t>https://nl.wikipedia.org/wiki/Uitvoerende_macht</t>
-  </si>
-  <si>
-    <t>Uitvoerende macht – 荷兰语</t>
-  </si>
-  <si>
-    <t>https://nn.wikipedia.org/wiki/Den_ut%C3%B8vande_makta</t>
-  </si>
-  <si>
-    <t>Den utøvande makta – 挪威尼诺斯克语</t>
-  </si>
-  <si>
-    <t>https://no.wikipedia.org/wiki/Ut%C3%B8vende_makt</t>
-  </si>
-  <si>
-    <t>Utøvende makt – 挪威语</t>
-  </si>
-  <si>
-    <t>https://oc.wikipedia.org/wiki/Poder_executiu</t>
-  </si>
-  <si>
-    <t>Poder executiu – 奥克语</t>
-  </si>
-  <si>
-    <t>https://pa.wikipedia.org/wiki/%E0%A8%95%E0%A8%BE%E0%A8%B0%E0%A8%9C%E0%A8%AA%E0%A8%BE%E0%A8%B2%E0%A8%BF%E0%A8%95%E0%A8%BE</t>
-  </si>
-  <si>
-    <t>ਕਾਰਜਪਾਲਿਕਾ – 旁遮普语</t>
-  </si>
-  <si>
-    <t>https://pl.wikipedia.org/wiki/W%C5%82adza_wykonawcza</t>
-  </si>
-  <si>
-    <t>Władza wykonawcza – 波兰语</t>
-  </si>
-  <si>
-    <t>https://ps.wikipedia.org/wiki/%D8%A7%D8%AC%D8%B1%D8%A7%D9%8A%D9%8A_%D9%82%D9%88%D9%87</t>
-  </si>
-  <si>
-    <t>اجرايي قوه – 普什图语</t>
-  </si>
-  <si>
-    <t>https://pt.wikipedia.org/wiki/Poder_Executivo</t>
-  </si>
-  <si>
-    <t>Poder Executivo – 葡萄牙语</t>
-  </si>
-  <si>
-    <t>https://qu.wikipedia.org/wiki/Ruraq_atiy</t>
-  </si>
-  <si>
-    <t>Ruraq atiy – 克丘亚语</t>
-  </si>
-  <si>
-    <t>https://ro.wikipedia.org/wiki/Executiv</t>
-  </si>
-  <si>
-    <t>Executiv – 罗马尼亚语</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%98%D1%81%D0%BF%D0%BE%D0%BB%D0%BD%D0%B8%D1%82%D0%B5%D0%BB%D1%8C%D0%BD%D0%B0%D1%8F_%D0%B2%D0%BB%D0%B0%D1%81%D1%82%D1%8C</t>
-  </si>
-  <si>
-    <t>Исполнительная власть – 俄语</t>
-  </si>
-  <si>
-    <t>https://sco.wikipedia.org/wiki/Executive_(govrenment)</t>
-  </si>
-  <si>
-    <t>Executive (govrenment) – 苏格兰语</t>
-  </si>
-  <si>
-    <t>https://sh.wikipedia.org/wiki/Izvr%C5%A1na_vlast</t>
-  </si>
-  <si>
-    <t>Izvršna vlast – 塞尔维亚-克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://si.wikipedia.org/wiki/%E0%B7%80%E0%B7%92%E0%B6%B0%E0%B7%8F%E0%B6%BA%E0%B6%9A%E0%B6%BA_(%E0%B6%86%E0%B6%AB%E0%B7%8A%E0%B6%A9%E0%B7%94%E0%B7%80)</t>
-  </si>
-  <si>
-    <t>විධායකය (ආණ්ඩුව) – 僧伽罗语</t>
-  </si>
-  <si>
-    <t>https://simple.wikipedia.org/wiki/Executive_(government)</t>
-  </si>
-  <si>
-    <t>Executive (government) – Simple English</t>
-  </si>
-  <si>
-    <t>https://sk.wikipedia.org/wiki/V%C3%BDkonn%C3%A1_moc</t>
-  </si>
-  <si>
-    <t>Výkonná moc – 斯洛伐克语</t>
-  </si>
-  <si>
-    <t>https://sl.wikipedia.org/wiki/Izvr%C5%A1ilna_oblast</t>
-  </si>
-  <si>
-    <t>Izvršilna oblast – 斯洛文尼亚语</t>
-  </si>
-  <si>
-    <t>https://so.wikipedia.org/wiki/Fulinta_(Dawlad)</t>
-  </si>
-  <si>
-    <t>Fulinta (Dawlad) – 索马里语</t>
-  </si>
-  <si>
-    <t>https://sr.wikipedia.org/wiki/%D0%98%D0%B7%D0%B2%D1%80%D1%88%D0%BD%D0%B0_%D0%B2%D0%BB%D0%B0%D1%81%D1%82</t>
-  </si>
-  <si>
-    <t>Извршна власт – 塞尔维亚语</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/Verkst%C3%A4llande_makt</t>
-  </si>
-  <si>
-    <t>Verkställande makt – 瑞典语</t>
-  </si>
-  <si>
-    <t>https://ta.wikipedia.org/wiki/%E0%AE%9A%E0%AF%86%E0%AE%AF%E0%AE%B2%E0%AE%BE%E0%AE%9F%E0%AF%8D%E0%AE%9A%E0%AE%BF%E0%AE%AF%E0%AE%B0%E0%AF%8D</t>
-  </si>
-  <si>
-    <t>செயலாட்சியர் – 泰米尔语</t>
-  </si>
-  <si>
-    <t>https://tg.wikipedia.org/wiki/%D2%B2%D0%BE%D0%BA%D0%B8%D0%BC%D0%B8%D1%8F%D1%82%D0%B8_%D0%B8%D2%B7%D1%80%D0%BE%D0%B8%D1%8F</t>
-  </si>
-  <si>
-    <t>Ҳокимияти иҷроия – 塔吉克语</t>
-  </si>
-  <si>
-    <t>https://th.wikipedia.org/wiki/%E0%B8%AD%E0%B8%B3%E0%B8%99%E0%B8%B2%E0%B8%88%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%AB%E0%B8%B2%E0%B8%A3</t>
-  </si>
-  <si>
-    <t>อำนาจบริหาร – 泰语</t>
-  </si>
-  <si>
-    <t>https://tl.wikipedia.org/wiki/Ehekutibong_sangay</t>
-  </si>
-  <si>
-    <t>Ehekutibong sangay – 他加禄语</t>
-  </si>
-  <si>
-    <t>https://tr.wikipedia.org/wiki/Y%C3%BCr%C3%BCtme_erki</t>
-  </si>
-  <si>
-    <t>Yürütme erki – 土耳其语</t>
-  </si>
-  <si>
-    <t>https://uk.wikipedia.org/wiki/%D0%92%D0%B8%D0%BA%D0%BE%D0%BD%D0%B0%D0%B2%D1%87%D0%B0_%D0%B2%D0%BB%D0%B0%D0%B4%D0%B0</t>
-  </si>
-  <si>
-    <t>Виконавча влада – 乌克兰语</t>
-  </si>
-  <si>
-    <t>https://vi.wikipedia.org/wiki/Quy%E1%BB%81n_h%C3%A0nh_ph%C3%A1p</t>
-  </si>
-  <si>
-    <t>Quyền hành pháp – 越南语</t>
-  </si>
-  <si>
-    <t>https://zh-min-nan.wikipedia.org/wiki/H%C3%AAng-ch%C3%A8ng</t>
-  </si>
-  <si>
-    <t>Hêng-chèng – Chinese (Min Nan)</t>
-  </si>
-  <si>
-    <t>https://zh-yue.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF</t>
-  </si>
-  <si>
-    <t>行政 – Cantonese</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I207"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4315,7 +3871,7 @@
         <v>188</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -5452,2152 +5008,6 @@
         <v>4</v>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>0</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>133</v>
-      </c>
-      <c r="E134" t="s">
-        <v>262</v>
-      </c>
-      <c r="F134" t="s">
-        <v>263</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1</v>
-      </c>
-      <c r="H134" t="s">
-        <v>4</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="s">
-        <v>0</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>134</v>
-      </c>
-      <c r="E135" t="s">
-        <v>264</v>
-      </c>
-      <c r="F135" t="s">
-        <v>265</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1</v>
-      </c>
-      <c r="H135" t="s">
-        <v>4</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
-        <v>0</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136" t="n">
-        <v>135</v>
-      </c>
-      <c r="E136" t="s">
-        <v>266</v>
-      </c>
-      <c r="F136" t="s">
-        <v>267</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1</v>
-      </c>
-      <c r="H136" t="s">
-        <v>4</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>136</v>
-      </c>
-      <c r="E137" t="s">
-        <v>268</v>
-      </c>
-      <c r="F137" t="s">
-        <v>269</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1</v>
-      </c>
-      <c r="H137" t="s">
-        <v>4</v>
-      </c>
-      <c r="I137" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>137</v>
-      </c>
-      <c r="E138" t="s">
-        <v>270</v>
-      </c>
-      <c r="F138" t="s">
-        <v>271</v>
-      </c>
-      <c r="G138" t="n">
-        <v>2</v>
-      </c>
-      <c r="H138" t="s">
-        <v>4</v>
-      </c>
-      <c r="I138" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>0</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>138</v>
-      </c>
-      <c r="E139" t="s">
-        <v>272</v>
-      </c>
-      <c r="F139" t="s">
-        <v>273</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1</v>
-      </c>
-      <c r="H139" t="s">
-        <v>4</v>
-      </c>
-      <c r="I139" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>0</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>139</v>
-      </c>
-      <c r="E140" t="s">
-        <v>274</v>
-      </c>
-      <c r="F140" t="s">
-        <v>275</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1</v>
-      </c>
-      <c r="H140" t="s">
-        <v>4</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>140</v>
-      </c>
-      <c r="E141" t="s">
-        <v>276</v>
-      </c>
-      <c r="F141" t="s">
-        <v>277</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1</v>
-      </c>
-      <c r="H141" t="s">
-        <v>4</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
-        <v>0</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>141</v>
-      </c>
-      <c r="E142" t="s">
-        <v>278</v>
-      </c>
-      <c r="F142" t="s">
-        <v>279</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1</v>
-      </c>
-      <c r="H142" t="s">
-        <v>4</v>
-      </c>
-      <c r="I142" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
-        <v>0</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>142</v>
-      </c>
-      <c r="E143" t="s">
-        <v>280</v>
-      </c>
-      <c r="F143" t="s">
-        <v>281</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1</v>
-      </c>
-      <c r="H143" t="s">
-        <v>4</v>
-      </c>
-      <c r="I143" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="s">
-        <v>0</v>
-      </c>
-      <c r="C144" t="s">
-        <v>1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>143</v>
-      </c>
-      <c r="E144" t="s">
-        <v>282</v>
-      </c>
-      <c r="F144" t="s">
-        <v>283</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1</v>
-      </c>
-      <c r="H144" t="s">
-        <v>4</v>
-      </c>
-      <c r="I144" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
-        <v>0</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1</v>
-      </c>
-      <c r="D145" t="n">
-        <v>144</v>
-      </c>
-      <c r="E145" t="s">
-        <v>284</v>
-      </c>
-      <c r="F145" t="s">
-        <v>285</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1</v>
-      </c>
-      <c r="H145" t="s">
-        <v>4</v>
-      </c>
-      <c r="I145" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
-        <v>0</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>145</v>
-      </c>
-      <c r="E146" t="s">
-        <v>286</v>
-      </c>
-      <c r="F146" t="s">
-        <v>287</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1</v>
-      </c>
-      <c r="H146" t="s">
-        <v>4</v>
-      </c>
-      <c r="I146" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1</v>
-      </c>
-      <c r="D147" t="n">
-        <v>146</v>
-      </c>
-      <c r="E147" t="s">
-        <v>288</v>
-      </c>
-      <c r="F147" t="s">
-        <v>289</v>
-      </c>
-      <c r="G147" t="n">
-        <v>2</v>
-      </c>
-      <c r="H147" t="s">
-        <v>4</v>
-      </c>
-      <c r="I147" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
-        <v>0</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>147</v>
-      </c>
-      <c r="E148" t="s">
-        <v>290</v>
-      </c>
-      <c r="F148" t="s">
-        <v>291</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1</v>
-      </c>
-      <c r="H148" t="s">
-        <v>4</v>
-      </c>
-      <c r="I148" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>0</v>
-      </c>
-      <c r="C149" t="s">
-        <v>1</v>
-      </c>
-      <c r="D149" t="n">
-        <v>148</v>
-      </c>
-      <c r="E149" t="s">
-        <v>292</v>
-      </c>
-      <c r="F149" t="s">
-        <v>293</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1</v>
-      </c>
-      <c r="H149" t="s">
-        <v>4</v>
-      </c>
-      <c r="I149" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>149</v>
-      </c>
-      <c r="E150" t="s">
-        <v>294</v>
-      </c>
-      <c r="F150" t="s">
-        <v>295</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1</v>
-      </c>
-      <c r="H150" t="s">
-        <v>4</v>
-      </c>
-      <c r="I150" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="s">
-        <v>0</v>
-      </c>
-      <c r="C151" t="s">
-        <v>1</v>
-      </c>
-      <c r="D151" t="n">
-        <v>150</v>
-      </c>
-      <c r="E151" t="s">
-        <v>296</v>
-      </c>
-      <c r="F151" t="s">
-        <v>297</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1</v>
-      </c>
-      <c r="H151" t="s">
-        <v>4</v>
-      </c>
-      <c r="I151" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="s">
-        <v>0</v>
-      </c>
-      <c r="C152" t="s">
-        <v>1</v>
-      </c>
-      <c r="D152" t="n">
-        <v>151</v>
-      </c>
-      <c r="E152" t="s">
-        <v>298</v>
-      </c>
-      <c r="F152" t="s">
-        <v>299</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1</v>
-      </c>
-      <c r="H152" t="s">
-        <v>4</v>
-      </c>
-      <c r="I152" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="s">
-        <v>0</v>
-      </c>
-      <c r="C153" t="s">
-        <v>1</v>
-      </c>
-      <c r="D153" t="n">
-        <v>152</v>
-      </c>
-      <c r="E153" t="s">
-        <v>300</v>
-      </c>
-      <c r="F153" t="s">
-        <v>301</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1</v>
-      </c>
-      <c r="H153" t="s">
-        <v>4</v>
-      </c>
-      <c r="I153" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>0</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1</v>
-      </c>
-      <c r="D154" t="n">
-        <v>153</v>
-      </c>
-      <c r="E154" t="s">
-        <v>302</v>
-      </c>
-      <c r="F154" t="s">
-        <v>303</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1</v>
-      </c>
-      <c r="H154" t="s">
-        <v>4</v>
-      </c>
-      <c r="I154" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="s">
-        <v>0</v>
-      </c>
-      <c r="C155" t="s">
-        <v>1</v>
-      </c>
-      <c r="D155" t="n">
-        <v>154</v>
-      </c>
-      <c r="E155" t="s">
-        <v>304</v>
-      </c>
-      <c r="F155" t="s">
-        <v>305</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1</v>
-      </c>
-      <c r="H155" t="s">
-        <v>4</v>
-      </c>
-      <c r="I155" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="s">
-        <v>0</v>
-      </c>
-      <c r="C156" t="s">
-        <v>1</v>
-      </c>
-      <c r="D156" t="n">
-        <v>155</v>
-      </c>
-      <c r="E156" t="s">
-        <v>306</v>
-      </c>
-      <c r="F156" t="s">
-        <v>307</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1</v>
-      </c>
-      <c r="H156" t="s">
-        <v>4</v>
-      </c>
-      <c r="I156" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
-        <v>0</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>156</v>
-      </c>
-      <c r="E157" t="s">
-        <v>308</v>
-      </c>
-      <c r="F157" t="s">
-        <v>309</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1</v>
-      </c>
-      <c r="H157" t="s">
-        <v>4</v>
-      </c>
-      <c r="I157" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" t="s">
-        <v>1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>157</v>
-      </c>
-      <c r="E158" t="s">
-        <v>310</v>
-      </c>
-      <c r="F158" t="s">
-        <v>311</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1</v>
-      </c>
-      <c r="H158" t="s">
-        <v>4</v>
-      </c>
-      <c r="I158" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>0</v>
-      </c>
-      <c r="C159" t="s">
-        <v>1</v>
-      </c>
-      <c r="D159" t="n">
-        <v>158</v>
-      </c>
-      <c r="E159" t="s">
-        <v>312</v>
-      </c>
-      <c r="F159" t="s">
-        <v>313</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1</v>
-      </c>
-      <c r="H159" t="s">
-        <v>4</v>
-      </c>
-      <c r="I159" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>0</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1</v>
-      </c>
-      <c r="D160" t="n">
-        <v>159</v>
-      </c>
-      <c r="E160" t="s">
-        <v>314</v>
-      </c>
-      <c r="F160" t="s">
-        <v>315</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1</v>
-      </c>
-      <c r="H160" t="s">
-        <v>4</v>
-      </c>
-      <c r="I160" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" t="s">
-        <v>1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>160</v>
-      </c>
-      <c r="E161" t="s">
-        <v>316</v>
-      </c>
-      <c r="F161" t="s">
-        <v>317</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1</v>
-      </c>
-      <c r="H161" t="s">
-        <v>4</v>
-      </c>
-      <c r="I161" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>0</v>
-      </c>
-      <c r="C162" t="s">
-        <v>1</v>
-      </c>
-      <c r="D162" t="n">
-        <v>161</v>
-      </c>
-      <c r="E162" t="s">
-        <v>318</v>
-      </c>
-      <c r="F162" t="s">
-        <v>319</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1</v>
-      </c>
-      <c r="H162" t="s">
-        <v>4</v>
-      </c>
-      <c r="I162" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="s">
-        <v>0</v>
-      </c>
-      <c r="C163" t="s">
-        <v>1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>162</v>
-      </c>
-      <c r="E163" t="s">
-        <v>320</v>
-      </c>
-      <c r="F163" t="s">
-        <v>321</v>
-      </c>
-      <c r="G163" t="n">
-        <v>1</v>
-      </c>
-      <c r="H163" t="s">
-        <v>4</v>
-      </c>
-      <c r="I163" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="s">
-        <v>0</v>
-      </c>
-      <c r="C164" t="s">
-        <v>1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>163</v>
-      </c>
-      <c r="E164" t="s">
-        <v>322</v>
-      </c>
-      <c r="F164" t="s">
-        <v>323</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1</v>
-      </c>
-      <c r="H164" t="s">
-        <v>4</v>
-      </c>
-      <c r="I164" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="s">
-        <v>0</v>
-      </c>
-      <c r="C165" t="s">
-        <v>1</v>
-      </c>
-      <c r="D165" t="n">
-        <v>164</v>
-      </c>
-      <c r="E165" t="s">
-        <v>324</v>
-      </c>
-      <c r="F165" t="s">
-        <v>325</v>
-      </c>
-      <c r="G165" t="n">
-        <v>1</v>
-      </c>
-      <c r="H165" t="s">
-        <v>4</v>
-      </c>
-      <c r="I165" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="s">
-        <v>0</v>
-      </c>
-      <c r="C166" t="s">
-        <v>1</v>
-      </c>
-      <c r="D166" t="n">
-        <v>165</v>
-      </c>
-      <c r="E166" t="s">
-        <v>326</v>
-      </c>
-      <c r="F166" t="s">
-        <v>327</v>
-      </c>
-      <c r="G166" t="n">
-        <v>1</v>
-      </c>
-      <c r="H166" t="s">
-        <v>4</v>
-      </c>
-      <c r="I166" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="s">
-        <v>0</v>
-      </c>
-      <c r="C167" t="s">
-        <v>1</v>
-      </c>
-      <c r="D167" t="n">
-        <v>166</v>
-      </c>
-      <c r="E167" t="s">
-        <v>328</v>
-      </c>
-      <c r="F167" t="s">
-        <v>329</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1</v>
-      </c>
-      <c r="H167" t="s">
-        <v>4</v>
-      </c>
-      <c r="I167" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="s">
-        <v>0</v>
-      </c>
-      <c r="C168" t="s">
-        <v>1</v>
-      </c>
-      <c r="D168" t="n">
-        <v>167</v>
-      </c>
-      <c r="E168" t="s">
-        <v>330</v>
-      </c>
-      <c r="F168" t="s">
-        <v>331</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1</v>
-      </c>
-      <c r="H168" t="s">
-        <v>4</v>
-      </c>
-      <c r="I168" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="s">
-        <v>0</v>
-      </c>
-      <c r="C169" t="s">
-        <v>1</v>
-      </c>
-      <c r="D169" t="n">
-        <v>168</v>
-      </c>
-      <c r="E169" t="s">
-        <v>332</v>
-      </c>
-      <c r="F169" t="s">
-        <v>333</v>
-      </c>
-      <c r="G169" t="n">
-        <v>1</v>
-      </c>
-      <c r="H169" t="s">
-        <v>4</v>
-      </c>
-      <c r="I169" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="s">
-        <v>0</v>
-      </c>
-      <c r="C170" t="s">
-        <v>1</v>
-      </c>
-      <c r="D170" t="n">
-        <v>169</v>
-      </c>
-      <c r="E170" t="s">
-        <v>334</v>
-      </c>
-      <c r="F170" t="s">
-        <v>335</v>
-      </c>
-      <c r="G170" t="n">
-        <v>1</v>
-      </c>
-      <c r="H170" t="s">
-        <v>4</v>
-      </c>
-      <c r="I170" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="s">
-        <v>0</v>
-      </c>
-      <c r="C171" t="s">
-        <v>1</v>
-      </c>
-      <c r="D171" t="n">
-        <v>170</v>
-      </c>
-      <c r="E171" t="s">
-        <v>336</v>
-      </c>
-      <c r="F171" t="s">
-        <v>337</v>
-      </c>
-      <c r="G171" t="n">
-        <v>1</v>
-      </c>
-      <c r="H171" t="s">
-        <v>4</v>
-      </c>
-      <c r="I171" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="s">
-        <v>0</v>
-      </c>
-      <c r="C172" t="s">
-        <v>1</v>
-      </c>
-      <c r="D172" t="n">
-        <v>171</v>
-      </c>
-      <c r="E172" t="s">
-        <v>338</v>
-      </c>
-      <c r="F172" t="s">
-        <v>339</v>
-      </c>
-      <c r="G172" t="n">
-        <v>1</v>
-      </c>
-      <c r="H172" t="s">
-        <v>4</v>
-      </c>
-      <c r="I172" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="s">
-        <v>0</v>
-      </c>
-      <c r="C173" t="s">
-        <v>1</v>
-      </c>
-      <c r="D173" t="n">
-        <v>172</v>
-      </c>
-      <c r="E173" t="s">
-        <v>340</v>
-      </c>
-      <c r="F173" t="s">
-        <v>341</v>
-      </c>
-      <c r="G173" t="n">
-        <v>1</v>
-      </c>
-      <c r="H173" t="s">
-        <v>4</v>
-      </c>
-      <c r="I173" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" t="s">
-        <v>1</v>
-      </c>
-      <c r="D174" t="n">
-        <v>173</v>
-      </c>
-      <c r="E174" t="s">
-        <v>342</v>
-      </c>
-      <c r="F174" t="s">
-        <v>343</v>
-      </c>
-      <c r="G174" t="n">
-        <v>1</v>
-      </c>
-      <c r="H174" t="s">
-        <v>4</v>
-      </c>
-      <c r="I174" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="s">
-        <v>0</v>
-      </c>
-      <c r="C175" t="s">
-        <v>1</v>
-      </c>
-      <c r="D175" t="n">
-        <v>174</v>
-      </c>
-      <c r="E175" t="s">
-        <v>344</v>
-      </c>
-      <c r="F175" t="s">
-        <v>345</v>
-      </c>
-      <c r="G175" t="n">
-        <v>1</v>
-      </c>
-      <c r="H175" t="s">
-        <v>4</v>
-      </c>
-      <c r="I175" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="s">
-        <v>0</v>
-      </c>
-      <c r="C176" t="s">
-        <v>1</v>
-      </c>
-      <c r="D176" t="n">
-        <v>175</v>
-      </c>
-      <c r="E176" t="s">
-        <v>346</v>
-      </c>
-      <c r="F176" t="s">
-        <v>347</v>
-      </c>
-      <c r="G176" t="n">
-        <v>1</v>
-      </c>
-      <c r="H176" t="s">
-        <v>4</v>
-      </c>
-      <c r="I176" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>0</v>
-      </c>
-      <c r="C177" t="s">
-        <v>1</v>
-      </c>
-      <c r="D177" t="n">
-        <v>176</v>
-      </c>
-      <c r="E177" t="s">
-        <v>348</v>
-      </c>
-      <c r="F177" t="s">
-        <v>349</v>
-      </c>
-      <c r="G177" t="n">
-        <v>1</v>
-      </c>
-      <c r="H177" t="s">
-        <v>4</v>
-      </c>
-      <c r="I177" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="s">
-        <v>0</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1</v>
-      </c>
-      <c r="D178" t="n">
-        <v>177</v>
-      </c>
-      <c r="E178" t="s">
-        <v>350</v>
-      </c>
-      <c r="F178" t="s">
-        <v>351</v>
-      </c>
-      <c r="G178" t="n">
-        <v>1</v>
-      </c>
-      <c r="H178" t="s">
-        <v>4</v>
-      </c>
-      <c r="I178" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="s">
-        <v>0</v>
-      </c>
-      <c r="C179" t="s">
-        <v>1</v>
-      </c>
-      <c r="D179" t="n">
-        <v>178</v>
-      </c>
-      <c r="E179" t="s">
-        <v>352</v>
-      </c>
-      <c r="F179" t="s">
-        <v>353</v>
-      </c>
-      <c r="G179" t="n">
-        <v>1</v>
-      </c>
-      <c r="H179" t="s">
-        <v>4</v>
-      </c>
-      <c r="I179" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="s">
-        <v>0</v>
-      </c>
-      <c r="C180" t="s">
-        <v>1</v>
-      </c>
-      <c r="D180" t="n">
-        <v>179</v>
-      </c>
-      <c r="E180" t="s">
-        <v>354</v>
-      </c>
-      <c r="F180" t="s">
-        <v>355</v>
-      </c>
-      <c r="G180" t="n">
-        <v>1</v>
-      </c>
-      <c r="H180" t="s">
-        <v>4</v>
-      </c>
-      <c r="I180" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="s">
-        <v>0</v>
-      </c>
-      <c r="C181" t="s">
-        <v>1</v>
-      </c>
-      <c r="D181" t="n">
-        <v>180</v>
-      </c>
-      <c r="E181" t="s">
-        <v>356</v>
-      </c>
-      <c r="F181" t="s">
-        <v>357</v>
-      </c>
-      <c r="G181" t="n">
-        <v>2</v>
-      </c>
-      <c r="H181" t="s">
-        <v>4</v>
-      </c>
-      <c r="I181" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="s">
-        <v>0</v>
-      </c>
-      <c r="C182" t="s">
-        <v>1</v>
-      </c>
-      <c r="D182" t="n">
-        <v>181</v>
-      </c>
-      <c r="E182" t="s">
-        <v>358</v>
-      </c>
-      <c r="F182" t="s">
-        <v>359</v>
-      </c>
-      <c r="G182" t="n">
-        <v>1</v>
-      </c>
-      <c r="H182" t="s">
-        <v>4</v>
-      </c>
-      <c r="I182" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="s">
-        <v>0</v>
-      </c>
-      <c r="C183" t="s">
-        <v>1</v>
-      </c>
-      <c r="D183" t="n">
-        <v>182</v>
-      </c>
-      <c r="E183" t="s">
-        <v>360</v>
-      </c>
-      <c r="F183" t="s">
-        <v>361</v>
-      </c>
-      <c r="G183" t="n">
-        <v>1</v>
-      </c>
-      <c r="H183" t="s">
-        <v>4</v>
-      </c>
-      <c r="I183" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="s">
-        <v>0</v>
-      </c>
-      <c r="C184" t="s">
-        <v>1</v>
-      </c>
-      <c r="D184" t="n">
-        <v>183</v>
-      </c>
-      <c r="E184" t="s">
-        <v>362</v>
-      </c>
-      <c r="F184" t="s">
-        <v>363</v>
-      </c>
-      <c r="G184" t="n">
-        <v>1</v>
-      </c>
-      <c r="H184" t="s">
-        <v>4</v>
-      </c>
-      <c r="I184" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="s">
-        <v>0</v>
-      </c>
-      <c r="C185" t="s">
-        <v>1</v>
-      </c>
-      <c r="D185" t="n">
-        <v>184</v>
-      </c>
-      <c r="E185" t="s">
-        <v>364</v>
-      </c>
-      <c r="F185" t="s">
-        <v>365</v>
-      </c>
-      <c r="G185" t="n">
-        <v>1</v>
-      </c>
-      <c r="H185" t="s">
-        <v>4</v>
-      </c>
-      <c r="I185" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="s">
-        <v>0</v>
-      </c>
-      <c r="C186" t="s">
-        <v>1</v>
-      </c>
-      <c r="D186" t="n">
-        <v>185</v>
-      </c>
-      <c r="E186" t="s">
-        <v>366</v>
-      </c>
-      <c r="F186" t="s">
-        <v>367</v>
-      </c>
-      <c r="G186" t="n">
-        <v>1</v>
-      </c>
-      <c r="H186" t="s">
-        <v>4</v>
-      </c>
-      <c r="I186" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="s">
-        <v>0</v>
-      </c>
-      <c r="C187" t="s">
-        <v>1</v>
-      </c>
-      <c r="D187" t="n">
-        <v>186</v>
-      </c>
-      <c r="E187" t="s">
-        <v>368</v>
-      </c>
-      <c r="F187" t="s">
-        <v>369</v>
-      </c>
-      <c r="G187" t="n">
-        <v>1</v>
-      </c>
-      <c r="H187" t="s">
-        <v>4</v>
-      </c>
-      <c r="I187" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="s">
-        <v>0</v>
-      </c>
-      <c r="C188" t="s">
-        <v>1</v>
-      </c>
-      <c r="D188" t="n">
-        <v>187</v>
-      </c>
-      <c r="E188" t="s">
-        <v>370</v>
-      </c>
-      <c r="F188" t="s">
-        <v>371</v>
-      </c>
-      <c r="G188" t="n">
-        <v>1</v>
-      </c>
-      <c r="H188" t="s">
-        <v>4</v>
-      </c>
-      <c r="I188" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="s">
-        <v>0</v>
-      </c>
-      <c r="C189" t="s">
-        <v>1</v>
-      </c>
-      <c r="D189" t="n">
-        <v>188</v>
-      </c>
-      <c r="E189" t="s">
-        <v>372</v>
-      </c>
-      <c r="F189" t="s">
-        <v>373</v>
-      </c>
-      <c r="G189" t="n">
-        <v>1</v>
-      </c>
-      <c r="H189" t="s">
-        <v>4</v>
-      </c>
-      <c r="I189" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="s">
-        <v>0</v>
-      </c>
-      <c r="C190" t="s">
-        <v>1</v>
-      </c>
-      <c r="D190" t="n">
-        <v>189</v>
-      </c>
-      <c r="E190" t="s">
-        <v>374</v>
-      </c>
-      <c r="F190" t="s">
-        <v>375</v>
-      </c>
-      <c r="G190" t="n">
-        <v>1</v>
-      </c>
-      <c r="H190" t="s">
-        <v>4</v>
-      </c>
-      <c r="I190" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="s">
-        <v>0</v>
-      </c>
-      <c r="C191" t="s">
-        <v>1</v>
-      </c>
-      <c r="D191" t="n">
-        <v>190</v>
-      </c>
-      <c r="E191" t="s">
-        <v>376</v>
-      </c>
-      <c r="F191" t="s">
-        <v>377</v>
-      </c>
-      <c r="G191" t="n">
-        <v>1</v>
-      </c>
-      <c r="H191" t="s">
-        <v>4</v>
-      </c>
-      <c r="I191" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="s">
-        <v>0</v>
-      </c>
-      <c r="C192" t="s">
-        <v>1</v>
-      </c>
-      <c r="D192" t="n">
-        <v>191</v>
-      </c>
-      <c r="E192" t="s">
-        <v>378</v>
-      </c>
-      <c r="F192" t="s">
-        <v>379</v>
-      </c>
-      <c r="G192" t="n">
-        <v>1</v>
-      </c>
-      <c r="H192" t="s">
-        <v>4</v>
-      </c>
-      <c r="I192" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="s">
-        <v>0</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1</v>
-      </c>
-      <c r="D193" t="n">
-        <v>192</v>
-      </c>
-      <c r="E193" t="s">
-        <v>380</v>
-      </c>
-      <c r="F193" t="s">
-        <v>381</v>
-      </c>
-      <c r="G193" t="n">
-        <v>1</v>
-      </c>
-      <c r="H193" t="s">
-        <v>4</v>
-      </c>
-      <c r="I193" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="s">
-        <v>0</v>
-      </c>
-      <c r="C194" t="s">
-        <v>1</v>
-      </c>
-      <c r="D194" t="n">
-        <v>193</v>
-      </c>
-      <c r="E194" t="s">
-        <v>382</v>
-      </c>
-      <c r="F194" t="s">
-        <v>383</v>
-      </c>
-      <c r="G194" t="n">
-        <v>1</v>
-      </c>
-      <c r="H194" t="s">
-        <v>4</v>
-      </c>
-      <c r="I194" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="s">
-        <v>0</v>
-      </c>
-      <c r="C195" t="s">
-        <v>1</v>
-      </c>
-      <c r="D195" t="n">
-        <v>194</v>
-      </c>
-      <c r="E195" t="s">
-        <v>384</v>
-      </c>
-      <c r="F195" t="s">
-        <v>385</v>
-      </c>
-      <c r="G195" t="n">
-        <v>1</v>
-      </c>
-      <c r="H195" t="s">
-        <v>4</v>
-      </c>
-      <c r="I195" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="s">
-        <v>0</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1</v>
-      </c>
-      <c r="D196" t="n">
-        <v>195</v>
-      </c>
-      <c r="E196" t="s">
-        <v>386</v>
-      </c>
-      <c r="F196" t="s">
-        <v>387</v>
-      </c>
-      <c r="G196" t="n">
-        <v>1</v>
-      </c>
-      <c r="H196" t="s">
-        <v>4</v>
-      </c>
-      <c r="I196" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="s">
-        <v>0</v>
-      </c>
-      <c r="C197" t="s">
-        <v>1</v>
-      </c>
-      <c r="D197" t="n">
-        <v>196</v>
-      </c>
-      <c r="E197" t="s">
-        <v>388</v>
-      </c>
-      <c r="F197" t="s">
-        <v>389</v>
-      </c>
-      <c r="G197" t="n">
-        <v>1</v>
-      </c>
-      <c r="H197" t="s">
-        <v>4</v>
-      </c>
-      <c r="I197" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="s">
-        <v>0</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1</v>
-      </c>
-      <c r="D198" t="n">
-        <v>197</v>
-      </c>
-      <c r="E198" t="s">
-        <v>390</v>
-      </c>
-      <c r="F198" t="s">
-        <v>391</v>
-      </c>
-      <c r="G198" t="n">
-        <v>1</v>
-      </c>
-      <c r="H198" t="s">
-        <v>4</v>
-      </c>
-      <c r="I198" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="s">
-        <v>0</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1</v>
-      </c>
-      <c r="D199" t="n">
-        <v>198</v>
-      </c>
-      <c r="E199" t="s">
-        <v>392</v>
-      </c>
-      <c r="F199" t="s">
-        <v>393</v>
-      </c>
-      <c r="G199" t="n">
-        <v>1</v>
-      </c>
-      <c r="H199" t="s">
-        <v>4</v>
-      </c>
-      <c r="I199" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1</v>
-      </c>
-      <c r="D200" t="n">
-        <v>199</v>
-      </c>
-      <c r="E200" t="s">
-        <v>394</v>
-      </c>
-      <c r="F200" t="s">
-        <v>395</v>
-      </c>
-      <c r="G200" t="n">
-        <v>1</v>
-      </c>
-      <c r="H200" t="s">
-        <v>4</v>
-      </c>
-      <c r="I200" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D201" t="n">
-        <v>200</v>
-      </c>
-      <c r="E201" t="s">
-        <v>396</v>
-      </c>
-      <c r="F201" t="s">
-        <v>397</v>
-      </c>
-      <c r="G201" t="n">
-        <v>1</v>
-      </c>
-      <c r="H201" t="s">
-        <v>4</v>
-      </c>
-      <c r="I201" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="s">
-        <v>0</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1</v>
-      </c>
-      <c r="D202" t="n">
-        <v>201</v>
-      </c>
-      <c r="E202" t="s">
-        <v>398</v>
-      </c>
-      <c r="F202" t="s">
-        <v>399</v>
-      </c>
-      <c r="G202" t="n">
-        <v>1</v>
-      </c>
-      <c r="H202" t="s">
-        <v>4</v>
-      </c>
-      <c r="I202" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="s">
-        <v>0</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1</v>
-      </c>
-      <c r="D203" t="n">
-        <v>202</v>
-      </c>
-      <c r="E203" t="s">
-        <v>400</v>
-      </c>
-      <c r="F203" t="s">
-        <v>401</v>
-      </c>
-      <c r="G203" t="n">
-        <v>1</v>
-      </c>
-      <c r="H203" t="s">
-        <v>4</v>
-      </c>
-      <c r="I203" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="s">
-        <v>0</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1</v>
-      </c>
-      <c r="D204" t="n">
-        <v>203</v>
-      </c>
-      <c r="E204" t="s">
-        <v>402</v>
-      </c>
-      <c r="F204" t="s">
-        <v>403</v>
-      </c>
-      <c r="G204" t="n">
-        <v>1</v>
-      </c>
-      <c r="H204" t="s">
-        <v>4</v>
-      </c>
-      <c r="I204" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="s">
-        <v>0</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1</v>
-      </c>
-      <c r="D205" t="n">
-        <v>204</v>
-      </c>
-      <c r="E205" t="s">
-        <v>404</v>
-      </c>
-      <c r="F205" t="s">
-        <v>405</v>
-      </c>
-      <c r="G205" t="n">
-        <v>1</v>
-      </c>
-      <c r="H205" t="s">
-        <v>4</v>
-      </c>
-      <c r="I205" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="s">
-        <v>0</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1</v>
-      </c>
-      <c r="D206" t="n">
-        <v>205</v>
-      </c>
-      <c r="E206" t="s">
-        <v>406</v>
-      </c>
-      <c r="F206" t="s">
-        <v>407</v>
-      </c>
-      <c r="G206" t="n">
-        <v>1</v>
-      </c>
-      <c r="H206" t="s">
-        <v>4</v>
-      </c>
-      <c r="I206" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="s">
-        <v>0</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1</v>
-      </c>
-      <c r="D207" t="n">
-        <v>206</v>
-      </c>
-      <c r="E207" t="s">
-        <v>408</v>
-      </c>
-      <c r="F207" t="s">
-        <v>409</v>
-      </c>
-      <c r="G207" t="n">
-        <v>1</v>
-      </c>
-      <c r="H207" t="s">
-        <v>4</v>
-      </c>
-      <c r="I207" t="n">
         <v>2</v>
       </c>
     </row>

--- a/xlsx/政策_政策_行政_intext.xlsx
+++ b/xlsx/政策_政策_行政_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
   <si>
     <t>行政</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>三權分立</t>
+    <t>三权分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E9%98%81</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>酋長</t>
+    <t>酋长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%BB%E6%95%99</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AE%B6</t>
@@ -431,9 +431,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
@@ -449,13 +446,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -479,67 +473,61 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>部長</t>
+    <t>部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>半總統制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>議會</t>
+    <t>议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
+    <t>君主立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E4%BD%8D%E5%85%83%E9%A6%96</t>
@@ -551,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -569,13 +557,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%9D%A3</t>
   </si>
   <si>
-    <t>總督</t>
+    <t>总督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -593,13 +581,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
-    <t>英國君主</t>
+    <t>英国君主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -617,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>總理</t>
+    <t>总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%9B%B8</t>
@@ -629,37 +617,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>議員</t>
+    <t>议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>內閣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會主義國家</t>
+    <t>社会主义国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>執政黨</t>
+    <t>执政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>朝鮮民主主義人民共和國</t>
+    <t>朝鲜民主主义人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -671,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E8%81%AF%E9%82%A6%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>瑞士聯邦委員會</t>
+    <t>瑞士联邦委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
@@ -725,37 +710,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>立法機構</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%AC%8A%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>五權分立</t>
+    <t>五权分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E8%A9%A6</t>
   </si>
   <si>
-    <t>考試</t>
+    <t>考试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E8%A9%A6%E9%99%A2</t>
   </si>
   <si>
-    <t>考試院</t>
+    <t>考试院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%AF%9F</t>
   </si>
   <si>
-    <t>監察</t>
+    <t>监察</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%AF%9F%E9%99%A2</t>
   </si>
   <si>
-    <t>監察院</t>
+    <t>监察院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%AD%A6</t>
@@ -779,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -791,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
@@ -3143,7 +3125,7 @@
         <v>137</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G69" t="n">
         <v>15</v>
@@ -3169,10 +3151,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3198,10 +3180,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>7</v>
@@ -3227,10 +3209,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3256,10 +3238,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3285,10 +3267,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3314,10 +3296,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3343,10 +3325,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3372,10 +3354,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3401,10 +3383,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3430,10 +3412,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>10</v>
@@ -3459,10 +3441,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3488,10 +3470,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3517,10 +3499,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G82" t="n">
         <v>5</v>
@@ -3546,10 +3528,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3575,10 +3557,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3604,10 +3586,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3633,10 +3615,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3662,10 +3644,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3691,10 +3673,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3720,10 +3702,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3749,10 +3731,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3778,10 +3760,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3807,10 +3789,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3836,10 +3818,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3865,10 +3847,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3894,10 +3876,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3923,10 +3905,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3952,10 +3934,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3981,10 +3963,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4010,10 +3992,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4039,10 +4021,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -4068,10 +4050,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4097,10 +4079,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4126,10 +4108,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4155,10 +4137,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4184,10 +4166,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4213,10 +4195,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4242,10 +4224,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4271,10 +4253,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4329,10 +4311,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4358,10 +4340,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4387,10 +4369,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4416,10 +4398,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>15</v>
@@ -4445,10 +4427,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4474,10 +4456,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4503,10 +4485,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4532,10 +4514,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4561,10 +4543,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4590,10 +4572,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4648,10 +4630,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4677,10 +4659,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -4706,10 +4688,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4735,10 +4717,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -4764,10 +4746,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4793,10 +4775,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4822,10 +4804,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4851,10 +4833,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4880,10 +4862,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -4909,10 +4891,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4938,10 +4920,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4967,10 +4949,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>5</v>
@@ -4996,10 +4978,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
